--- a/Data_analysis/Waldo_summer_2019.xlsx
+++ b/Data_analysis/Waldo_summer_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pennychen/Dropbox/waldo_experiment_files/Data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE55A66-21E7-054B-8344-BBD4FCDC7372}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1D00FD-FBF5-5846-BBDF-67C48D589878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="700" windowWidth="33060" windowHeight="16560" xr2:uid="{46280E34-2538-4744-A2CC-A0EC72CC794C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{46280E34-2538-4744-A2CC-A0EC72CC794C}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="2" r:id="rId1"/>
@@ -18,101 +18,6 @@
     <sheet name="Posner_accuracy" sheetId="3" r:id="rId3"/>
     <sheet name="bf_exp" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Experiment!$A$14:$AE$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Experiment!$A$15:$AE$15</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Experiment!$A$23:$AE$23</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Experiment!$A$24:$AE$24</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Experiment!$A$25:$AE$25</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Experiment!$A$26:$AE$26</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Experiment!$A$27:$AE$27</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Experiment!$A$28:$AE$28</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Experiment!$A$29:$AE$29</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Experiment!$A$30:$AE$30</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Experiment!$A$31:$AE$31</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Experiment!$A$32:$AE$32</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Experiment!$A$16:$AE$16</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Experiment!$A$33:$AE$33</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Experiment!$A$34:$AE$34</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Experiment!$A$35:$AE$35</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Experiment!$A$36:$AE$36</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Experiment!$A$37:$AE$37</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Experiment!$A$38:$AE$38</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Experiment!$A$39:$AE$39</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Experiment!$A$40:$AE$40</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Experiment!$A$41:$AE$41</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Experiment!$A$42:$AE$42</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Experiment!$A$17:$AE$17</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Experiment!$A$43:$AE$43</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Experiment!$A$14:$AE$14</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Experiment!$A$15:$AE$15</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Experiment!$A$16:$AE$16</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Experiment!$A$17:$AE$17</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Experiment!$A$18:$AE$18</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Experiment!$A$19:$AE$19</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Experiment!$A$1:$AE$13</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Experiment!$A$20:$AE$20</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Experiment!$A$21:$AE$21</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Experiment!$A$18:$AE$18</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Experiment!$A$22:$AE$22</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Experiment!$A$23:$AE$23</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Experiment!$A$24:$AE$24</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Experiment!$A$25:$AE$25</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Experiment!$A$26:$AE$26</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Experiment!$A$27:$AE$27</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Experiment!$A$28:$AE$28</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Experiment!$A$29:$AE$29</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Experiment!$A$30:$AE$30</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Experiment!$A$31:$AE$31</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Experiment!$A$19:$AE$19</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">Experiment!$A$32:$AE$32</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">Experiment!$A$33:$AE$33</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">Experiment!$A$34:$AE$34</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">Experiment!$A$35:$AE$35</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">Experiment!$A$36:$AE$36</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">Experiment!$A$37:$AE$37</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">Experiment!$A$38:$AE$38</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">Experiment!$A$39:$AE$39</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">Experiment!$A$40:$AE$40</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">Experiment!$A$41:$AE$41</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Experiment!$A$1:$AE$13</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">Experiment!$A$42:$AE$42</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">Experiment!$A$43:$AE$43</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">Experiment!$A$14:$AE$14</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">Experiment!$A$15:$AE$15</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">Experiment!$A$16:$AE$16</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">Experiment!$A$17:$AE$17</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">Experiment!$A$18:$AE$18</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">Experiment!$A$19:$AE$19</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">Experiment!$A$1:$AE$13</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">Experiment!$A$20:$AE$20</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Experiment!$A$20:$AE$20</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">Experiment!$A$21:$AE$21</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">Experiment!$A$22:$AE$22</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">Experiment!$A$23:$AE$23</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">Experiment!$A$24:$AE$24</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">Experiment!$A$25:$AE$25</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">Experiment!$A$26:$AE$26</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">Experiment!$A$27:$AE$27</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">Experiment!$A$28:$AE$28</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">Experiment!$A$29:$AE$29</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">Experiment!$A$30:$AE$30</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Experiment!$A$21:$AE$21</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">Experiment!$A$31:$AE$31</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">Experiment!$A$32:$AE$32</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">Experiment!$A$33:$AE$33</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">Experiment!$A$34:$AE$34</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">Experiment!$A$35:$AE$35</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">Experiment!$A$36:$AE$36</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">Experiment!$A$37:$AE$37</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">Experiment!$A$38:$AE$38</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">Experiment!$A$39:$AE$39</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">Experiment!$A$40:$AE$40</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Experiment!$A$22:$AE$22</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">Experiment!$A$41:$AE$41</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">Experiment!$A$42:$AE$42</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">Experiment!$A$43:$AE$43</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -121,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -713,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455F5E67-AA2D-4341-BE14-B6C3610F182A}">
-  <dimension ref="A1:AE43"/>
+  <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1279,7 +1186,7 @@
         <v>0.10878700676717035</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M30" si="9">D6-G6</f>
+        <f t="shared" ref="M6:M29" si="9">D6-G6</f>
         <v>-2.872144604426996E-2</v>
       </c>
       <c r="N6">
@@ -1287,7 +1194,7 @@
         <v>-5.3192669292169814E-2</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O34" si="11">C6-I6</f>
+        <f t="shared" ref="O6:O33" si="11">C6-I6</f>
         <v>2.5983401025470254E-2</v>
       </c>
       <c r="P6">
@@ -3697,7 +3604,7 @@
         <v>0.28573295222896</v>
       </c>
       <c r="M30">
-        <f>D30-G30</f>
+        <f t="shared" ref="M30:M36" si="14">D30-G30</f>
         <v>-0.13719452134938015</v>
       </c>
       <c r="N30">
@@ -3797,7 +3704,7 @@
         <v>0.26798117039725988</v>
       </c>
       <c r="M31">
-        <f>D31-G31</f>
+        <f t="shared" si="14"/>
         <v>0.2032369082793597</v>
       </c>
       <c r="N31">
@@ -3897,7 +3804,7 @@
         <v>9.4143598285460151E-2</v>
       </c>
       <c r="M32">
-        <f>D32-G32</f>
+        <f t="shared" si="14"/>
         <v>-0.1181694821765098</v>
       </c>
       <c r="N32">
@@ -3997,7 +3904,7 @@
         <v>-0.17061365244460003</v>
       </c>
       <c r="M33">
-        <f>D33-G33</f>
+        <f t="shared" si="14"/>
         <v>-0.32922150038442011</v>
       </c>
       <c r="N33">
@@ -4097,7 +4004,7 @@
         <v>0.28557593773612977</v>
       </c>
       <c r="M34">
-        <f>D34-G34</f>
+        <f t="shared" si="14"/>
         <v>-0.30999246803356995</v>
       </c>
       <c r="N34">
@@ -4197,7 +4104,7 @@
         <v>0.23458647180704029</v>
       </c>
       <c r="M35">
-        <f>D35-G35</f>
+        <f t="shared" si="14"/>
         <v>0.29467875258095999</v>
       </c>
       <c r="N35">
@@ -4297,7 +4204,7 @@
         <v>-0.47296046045246998</v>
       </c>
       <c r="M36">
-        <f>D36-G36</f>
+        <f t="shared" si="14"/>
         <v>-0.15620982530526994</v>
       </c>
       <c r="N36">
@@ -4397,7 +4304,7 @@
         <v>-9.1854679644620019E-2</v>
       </c>
       <c r="M37">
-        <f t="shared" ref="M37:M40" si="14">D37-G37</f>
+        <f t="shared" ref="M37:M40" si="15">D37-G37</f>
         <v>0.17581425150009</v>
       </c>
       <c r="N37">
@@ -4405,7 +4312,7 @@
         <v>0.10922042845438007</v>
       </c>
       <c r="O37">
-        <f t="shared" ref="O37:O40" si="15">C37-I37</f>
+        <f t="shared" ref="O37:O40" si="16">C37-I37</f>
         <v>-0.11281486906336013</v>
       </c>
       <c r="P37">
@@ -4497,7 +4404,7 @@
         <v>0.31372649379511008</v>
       </c>
       <c r="M38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.71198944468198988</v>
       </c>
       <c r="N38">
@@ -4505,7 +4412,7 @@
         <v>-0.52429349725798957</v>
       </c>
       <c r="O38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-0.24328093673323981</v>
       </c>
       <c r="P38">
@@ -4597,7 +4504,7 @@
         <v>-0.10401364597371998</v>
       </c>
       <c r="M39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.5310631696229962E-2</v>
       </c>
       <c r="N39">
@@ -4605,7 +4512,7 @@
         <v>-0.65105455088650999</v>
       </c>
       <c r="O39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.0459741052550005E-2</v>
       </c>
       <c r="P39">
@@ -4697,7 +4604,7 @@
         <v>0.16773979767764979</v>
       </c>
       <c r="M40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.2386810679447402</v>
       </c>
       <c r="N40">
@@ -4705,7 +4612,7 @@
         <v>0.32764480000033025</v>
       </c>
       <c r="O40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.19851970211847991</v>
       </c>
       <c r="P40">
@@ -4756,21 +4663,6 @@
       </c>
       <c r="AD40">
         <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30">
-      <c r="A41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30">
-      <c r="A42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30">
-      <c r="A43">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Data_analysis/Waldo_summer_2019.xlsx
+++ b/Data_analysis/Waldo_summer_2019.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pennychen/Dropbox/waldo_experiment_files/Data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1D00FD-FBF5-5846-BBDF-67C48D589878}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F257D50-C3D5-4F4E-A613-F3C0DDFF68A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{46280E34-2538-4744-A2CC-A0EC72CC794C}"/>
+    <workbookView xWindow="2600" yWindow="620" windowWidth="28800" windowHeight="16560" activeTab="3" xr2:uid="{46280E34-2538-4744-A2CC-A0EC72CC794C}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="2" r:id="rId1"/>
     <sheet name="clean_inverted" sheetId="4" r:id="rId2"/>
     <sheet name="Posner_accuracy" sheetId="3" r:id="rId3"/>
-    <sheet name="bf_exp" sheetId="1" r:id="rId4"/>
+    <sheet name="clean_posner" sheetId="5" r:id="rId4"/>
+    <sheet name="bf_exp" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -622,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455F5E67-AA2D-4341-BE14-B6C3610F182A}">
   <dimension ref="A1:AE40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4675,8 +4676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89EB386-2E01-1E49-8758-E2D2CB534742}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6909,8 +6910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008AC630-45C8-0544-8483-10373D31EC03}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9528,6 +9529,1200 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED5D869-22D0-254C-98F7-F2FF0F83818E}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B1">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>0.85</v>
+      </c>
+      <c r="E1">
+        <v>3.8331914276287402</v>
+      </c>
+      <c r="F1">
+        <v>2.53635690330217</v>
+      </c>
+      <c r="G1">
+        <v>3.0762147909286002</v>
+      </c>
+      <c r="H1">
+        <f>G1-E1</f>
+        <v>-0.75697663670014004</v>
+      </c>
+      <c r="I1">
+        <f>G1-F1</f>
+        <v>0.53985788762643017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>0.94166666666666698</v>
+      </c>
+      <c r="B2">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="E2">
+        <v>4.4585851182251499</v>
+      </c>
+      <c r="F2">
+        <v>4.7929335578034298</v>
+      </c>
+      <c r="G2">
+        <v>5.2011233241265202</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H38" si="0">G2-E2</f>
+        <v>0.74253820590137032</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I38" si="1">G2-F2</f>
+        <v>0.40818976632309045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>0.99166666666666703</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="E3">
+        <v>3.08833779937898</v>
+      </c>
+      <c r="F3">
+        <v>2.4568842832619899</v>
+      </c>
+      <c r="G3">
+        <v>2.8809810782766898</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>-0.2073567211022902</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0.42409679501469988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="B4">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2.8955899742634399</v>
+      </c>
+      <c r="F4">
+        <v>3.0116134475295699</v>
+      </c>
+      <c r="G4">
+        <v>3.1380680294086498</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.24247805514520993</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.12645458187907987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="B5">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="E5">
+        <v>3.0744898743603502</v>
+      </c>
+      <c r="F5">
+        <v>2.9944613638023498</v>
+      </c>
+      <c r="G5">
+        <v>3.3760918030294298</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.30160192866907964</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.38163043922707995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3.6984764207154499</v>
+      </c>
+      <c r="F6">
+        <v>3.8357875033592199</v>
+      </c>
+      <c r="G6">
+        <v>4.6972376877441997</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.99876126702874979</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.86145018438497978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2.87663848713661</v>
+      </c>
+      <c r="F7">
+        <v>3.0150366329277598</v>
+      </c>
+      <c r="G7">
+        <v>2.7751284462710202</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-0.10151004086558979</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>-0.23990818665673963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3.0101125346651898</v>
+      </c>
+      <c r="F8">
+        <v>2.7160936286672999</v>
+      </c>
+      <c r="G8">
+        <v>2.6017588349680101</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-0.40835369969717972</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>-0.11433479369928978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3.58989653340541</v>
+      </c>
+      <c r="F9">
+        <v>3.3442490358526502</v>
+      </c>
+      <c r="G9">
+        <v>3.3187637563794898</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-0.2711327770259202</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>-2.5485279473160372E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3.5845601789963699</v>
+      </c>
+      <c r="F10">
+        <v>3.4834401151165402</v>
+      </c>
+      <c r="G10">
+        <v>3.6403011746704599</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>5.5740995674089966E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.15686105955391971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>0.99166666666666703</v>
+      </c>
+      <c r="B11">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2.5856094333402702</v>
+      </c>
+      <c r="F11">
+        <v>2.6272785030305399</v>
+      </c>
+      <c r="G11">
+        <v>2.5848972187688002</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-7.1221457146997125E-4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-4.2381284261739705E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="E12">
+        <v>3.1184801111618698</v>
+      </c>
+      <c r="F12">
+        <v>2.7229787275816002</v>
+      </c>
+      <c r="G12">
+        <v>2.9811351245975701</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-0.13734498656429972</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.25815639701596993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="B13">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="E13">
+        <v>5.4349686342250996</v>
+      </c>
+      <c r="F13">
+        <v>6.3349495294193403</v>
+      </c>
+      <c r="G13">
+        <v>5.2959877620687896</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-0.13898087215630994</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-1.0389617673505507</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B14">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="C14">
+        <v>0.75</v>
+      </c>
+      <c r="D14">
+        <v>0.7</v>
+      </c>
+      <c r="E14">
+        <v>4.0221714473822496</v>
+      </c>
+      <c r="F14">
+        <v>2.5565344045559599</v>
+      </c>
+      <c r="G14">
+        <v>3.8898264672607201</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>-0.13234498012152951</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1.3332920627047602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="B15">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="E15">
+        <v>2.9435191780645802</v>
+      </c>
+      <c r="F15">
+        <v>2.2615056422849502</v>
+      </c>
+      <c r="G15">
+        <v>2.9089015602166302</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>-3.4617617847950033E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.64739591793167994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>2.68006201686027</v>
+      </c>
+      <c r="F16">
+        <v>2.5789689961820801</v>
+      </c>
+      <c r="G16">
+        <v>2.8337540409838202</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.15369202412355021</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0.25478504480174013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>0.99166666666666703</v>
+      </c>
+      <c r="B17">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2.2571733106482501</v>
+      </c>
+      <c r="F17">
+        <v>2.2642150387788802</v>
+      </c>
+      <c r="G17">
+        <v>2.2099198060731098</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-4.7253504575140326E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>-5.4295232705770413E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>3.8085592033652</v>
+      </c>
+      <c r="F18">
+        <v>3.5412392752866002</v>
+      </c>
+      <c r="G18">
+        <v>2.99314457004269</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>-0.81541463332251007</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>-0.54809470524391024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B19">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>5.7553194976996496</v>
+      </c>
+      <c r="F19">
+        <v>5.1739025289813698</v>
+      </c>
+      <c r="G19">
+        <v>5.6049960312123099</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>-0.15032346648733963</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0.43109350223094012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>3.0680215711860601</v>
+      </c>
+      <c r="F20">
+        <v>2.5563835228482898</v>
+      </c>
+      <c r="G20">
+        <v>3.1833455394332599</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>0.11532396824719982</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0.62696201658497008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>0.90833333333333299</v>
+      </c>
+      <c r="B21">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="C21">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D21">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="E21">
+        <v>3.2462636506141598</v>
+      </c>
+      <c r="F21">
+        <v>3.90101865238764</v>
+      </c>
+      <c r="G21">
+        <v>3.4601220394399999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>0.21385838882584007</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>-0.44089661294764015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>0.81666666666666698</v>
+      </c>
+      <c r="B22">
+        <v>0.875</v>
+      </c>
+      <c r="C22">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D22">
+        <v>0.76666666666666705</v>
+      </c>
+      <c r="E22">
+        <v>5.3353974142422302</v>
+      </c>
+      <c r="F22">
+        <v>3.19004153274</v>
+      </c>
+      <c r="G22">
+        <v>4.9408740930097297</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>-0.39452332123250056</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>1.7508325602697297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="B23">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="C23">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3.46865491061769</v>
+      </c>
+      <c r="F23">
+        <v>2.8618877929719999</v>
+      </c>
+      <c r="G23">
+        <v>3.1962498848016101</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>-0.27240502581607995</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0.33436209182961019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2.2659905819067099</v>
+      </c>
+      <c r="F24">
+        <v>2.6024724254384601</v>
+      </c>
+      <c r="G24">
+        <v>2.3710311733186198</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>0.10504059141190991</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>-0.23144125211984035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="B25">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="E25">
+        <v>3.8016039809172502</v>
+      </c>
+      <c r="F25">
+        <v>4.6467599517976197</v>
+      </c>
+      <c r="G25">
+        <v>4.2893882105284797</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0.48778422961122958</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>-0.35737174126913995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2.8499549319191502</v>
+      </c>
+      <c r="F26">
+        <v>2.4929962347572099</v>
+      </c>
+      <c r="G26">
+        <v>2.6049800737450499</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>-0.24497485817410025</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0.11198383898784003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="B27">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="C27">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D27">
+        <v>0.95</v>
+      </c>
+      <c r="E27">
+        <v>6.5024713447994804</v>
+      </c>
+      <c r="F27">
+        <v>5.4042866211384499</v>
+      </c>
+      <c r="G27">
+        <v>6.5916832566522698</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>8.9211911852789427E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>1.1873966355138199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="E28">
+        <v>3.0948177450336498</v>
+      </c>
+      <c r="F28">
+        <v>2.2787825850149002</v>
+      </c>
+      <c r="G28">
+        <v>3.2717405178680501</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0.17692277283440028</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0.99295793285314993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>0.71666666666666701</v>
+      </c>
+      <c r="B29">
+        <v>0.6875</v>
+      </c>
+      <c r="C29">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D29">
+        <v>0.71666666666666701</v>
+      </c>
+      <c r="E29">
+        <v>5.07403339468169</v>
+      </c>
+      <c r="F29">
+        <v>4.3457612197846203</v>
+      </c>
+      <c r="G29">
+        <v>4.8327102346648996</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>-0.24132316001679044</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0.48694901488027931</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B30">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="C30">
+        <v>0.75</v>
+      </c>
+      <c r="D30">
+        <v>0.8</v>
+      </c>
+      <c r="E30">
+        <v>3.9213763449929302</v>
+      </c>
+      <c r="F30">
+        <v>3.8859850077165499</v>
+      </c>
+      <c r="G30">
+        <v>3.9938809570545999</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>7.2504612061669693E-2</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0.10789594933805002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>3.2452569453356199</v>
+      </c>
+      <c r="F31">
+        <v>3.3129700804129198</v>
+      </c>
+      <c r="G31">
+        <v>3.1585667507722999</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>-8.6690194563320055E-2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>-0.15440332964061998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>0.99166666666666703</v>
+      </c>
+      <c r="B32">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>3.6753199388213602</v>
+      </c>
+      <c r="F32">
+        <v>3.1934153934319802</v>
+      </c>
+      <c r="G32">
+        <v>3.6311352290213099</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>-4.4184709800050292E-2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0.4377198355893297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>0.99166666666666703</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="E33">
+        <v>2.9009347451695602</v>
+      </c>
+      <c r="F33">
+        <v>2.4601953610157001</v>
+      </c>
+      <c r="G33">
+        <v>2.6243642185325302</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>-0.27657052663702997</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0.16416885751683008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>3.5998424675781302</v>
+      </c>
+      <c r="F34">
+        <v>3.7190054686119201</v>
+      </c>
+      <c r="G34">
+        <v>3.5197963179799499</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>-8.0046149598180349E-2</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>-0.1992091506319702</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="B35">
+        <v>0.9375</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="E35">
+        <v>3.5948193428417001</v>
+      </c>
+      <c r="F35">
+        <v>3.0466598207131002</v>
+      </c>
+      <c r="G35">
+        <v>3.51876241505399</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>-7.6056927787710116E-2</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0.47210259434088986</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>0.96666666666666701</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="D36">
+        <v>0.95</v>
+      </c>
+      <c r="E36">
+        <v>5.1799827096983799</v>
+      </c>
+      <c r="F36">
+        <v>4.0305979935960297</v>
+      </c>
+      <c r="G36">
+        <v>3.5550382913727501</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>-1.6249444183256299</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>-0.47555970222327959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>0.99166666666666703</v>
+      </c>
+      <c r="B37">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>3.7672133207162601</v>
+      </c>
+      <c r="F37">
+        <v>3.0473919529467799</v>
+      </c>
+      <c r="G37">
+        <v>3.3876488190765199</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>-0.3795645016397402</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0.34025686612974004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>0.99166666666666703</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="E38">
+        <v>2.48928510490805</v>
+      </c>
+      <c r="F38">
+        <v>2.6830669688060902</v>
+      </c>
+      <c r="G38">
+        <v>2.7217061338409501</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0.23242102893290006</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>3.8639165034859868E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BED3D0B-AF69-B64E-8E35-7E413D9ACE2A}">
   <dimension ref="A1:L9"/>
   <sheetViews>
